--- a/rekap baru/2021-10.xlsx
+++ b/rekap baru/2021-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\pesantren\rekap-tahfidz\rekap baru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB09B10-D5CA-4665-8B2D-5292A519C5AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5605F8-34EC-4520-A21A-D2419FF87D83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -347,10 +347,10 @@
     <t>At-Taubah: 6</t>
   </si>
   <si>
-    <t>Al-An'am: 110</t>
-  </si>
-  <si>
     <t>Samarinda, 28 Oktober 2021</t>
+  </si>
+  <si>
+    <t>Al-An'am: 118</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1912,7 @@
     <row r="19" spans="1:9">
       <c r="F19" s="20"/>
       <c r="G19" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
@@ -2295,16 +2295,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
@@ -2329,8 +2329,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2597,20 +2597,20 @@
         <v>61</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="7">
         <v>126</v>
       </c>
       <c r="F12" s="16">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H12" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2678,16 +2678,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
@@ -2712,8 +2712,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3065,16 +3065,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G15">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">

--- a/rekap baru/2021-10.xlsx
+++ b/rekap baru/2021-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\pesantren\rekap-tahfidz\rekap baru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5605F8-34EC-4520-A21A-D2419FF87D83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2BE93A-849B-404C-BF0E-ACC5582E7E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1 putra'!$A$1:$H$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1 putri'!$A$1:$H$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1 putri'!$A$1:$H$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2 putra'!$A$1:$H$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2 putri'!$A$1:$H$24</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>DATA PENCAPAIAN TAHFIDZ</t>
   </si>
@@ -351,6 +351,66 @@
   </si>
   <si>
     <t>Al-An'am: 118</t>
+  </si>
+  <si>
+    <t>Maryam Fikria Tasya</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 186</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 101</t>
+  </si>
+  <si>
+    <t>Ali Imran: 157</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 248</t>
+  </si>
+  <si>
+    <t>An-Nisa: 11</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 286</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 181</t>
+  </si>
+  <si>
+    <t>An-Nisa: 86</t>
+  </si>
+  <si>
+    <t>An-Nisa: 79</t>
+  </si>
+  <si>
+    <t>Al-Maidah: 89</t>
+  </si>
+  <si>
+    <t>Yunus: 97</t>
+  </si>
+  <si>
+    <t>At-Taubah: 99</t>
+  </si>
+  <si>
+    <t>Al-Maidah: 9</t>
+  </si>
+  <si>
+    <t>Al-Maidah: 103</t>
+  </si>
+  <si>
+    <t>An-Nahl: 14</t>
+  </si>
+  <si>
+    <t>Ibrahim: 42</t>
+  </si>
+  <si>
+    <t>Al-An'am: 35</t>
+  </si>
+  <si>
+    <t>Ali Imran: 115</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -500,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,13 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -581,9 +635,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,6 +664,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,7 +946,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>160192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="904875" cy="952500"/>
@@ -1535,28 +1592,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="111.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -1568,44 +1625,44 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="33"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
@@ -1614,55 +1671,55 @@
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>30</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>11</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>587</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <f>4/20</f>
         <v>0.2</v>
       </c>
-      <c r="H6" s="7" t="str">
+      <c r="H6" s="6" t="str">
         <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>62</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>50</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <f t="shared" ref="G7" si="1">(F7-E7+20)/20</f>
         <v>0.4</v>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="H7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
@@ -1671,135 +1728,135 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>78</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>76</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <f t="shared" ref="G8:G9" si="2">(F8-E8+20)/20</f>
         <v>0.9</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="H8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>29</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>17</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="H9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>38</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>30</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <f t="shared" ref="G10" si="3">(F10-E10+20)/20</f>
         <v>0.6</v>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="H10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>23</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>7</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="26">
         <f t="shared" ref="G11:G12" si="4">(F11-E11+20)/20</f>
         <v>0.2</v>
       </c>
-      <c r="H11" s="7" t="str">
+      <c r="H11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>19</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>11</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="H12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
@@ -1811,97 +1868,97 @@
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>119</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>136</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <f t="shared" ref="G13:G15" si="5">(F13-E13+20)/20</f>
         <v>1.85</v>
       </c>
-      <c r="H13" s="7" t="str">
+      <c r="H13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>7</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>130</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <v>133</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <f t="shared" si="5"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="H14" s="7" t="str">
+      <c r="H14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>3</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>49</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <v>46</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
-      <c r="H15" s="7" t="str">
+      <c r="H15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="12">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="10">
         <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>2</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>G16/ROWS(H6:H15)</f>
         <v>0.2</v>
       </c>
@@ -1910,46 +1967,46 @@
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="F19" s="20"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="F21" s="20"/>
-      <c r="G21" s="23" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="F24" s="20"/>
-      <c r="G24" s="20" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2004,10 +2061,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2023,29 +2080,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="110.25" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="32" t="str">
+      <c r="A2" s="29" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"Putra","Putri")</f>
         <v>Oktober 2021 - Marhalah 1 Putri</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -2057,44 +2114,44 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="33"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
@@ -2103,215 +2160,302 @@
       <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17">
-        <f t="shared" ref="G6:G7" si="0">(F6-E6+20)/20</f>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="6">
+        <v>34</v>
+      </c>
+      <c r="F6" s="14">
+        <v>28</v>
+      </c>
+      <c r="G6" s="15">
+        <f>(F6-E6+20)/20</f>
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f>IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="27">
         <v>1</v>
       </c>
-      <c r="H6" s="18" t="str">
-        <f t="shared" ref="H6:H12" si="1">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
+      <c r="D7" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>15</v>
+      </c>
+      <c r="G7" s="15">
+        <f>(F7-E7+20)/20</f>
+        <v>1.7</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f>IF(G7&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>Tercapai</v>
-      </c>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="6">
+        <v>74</v>
+      </c>
+      <c r="F8" s="14">
+        <v>70</v>
+      </c>
+      <c r="G8" s="15">
+        <f>(F8-E8+20)/20</f>
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f>IF(G8&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Belum Tercapai</v>
+      </c>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17">
-        <f t="shared" ref="G8:G12" si="2">(F8-E8+20)/20</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>Tercapai</v>
-      </c>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45</v>
+      </c>
+      <c r="F9" s="14">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>Tercapai</v>
+      <c r="G9" s="15">
+        <f>(F9-E9+20)/20</f>
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f>IF(G9&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="6">
+        <v>84</v>
+      </c>
+      <c r="F10" s="14">
+        <v>78</v>
+      </c>
+      <c r="G10" s="15">
+        <f>(F10-E10+20)/20</f>
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f>IF(G10&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17">
-        <f t="shared" ref="G10:G11" si="3">(F10-E10+20)/20</f>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="6">
+        <v>60</v>
+      </c>
+      <c r="F11" s="14">
+        <v>49</v>
+      </c>
+      <c r="G11" s="15">
+        <f>(F11-E11+20)/20</f>
+        <v>0.45</v>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f>IF(G11&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="27">
+        <v>2</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="27">
+        <v>35</v>
+      </c>
+      <c r="F12" s="14">
+        <v>27</v>
+      </c>
+      <c r="G12" s="15">
+        <f>(F12-E12+20)/20</f>
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="27" t="str">
+        <f>IF(G12&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="6">
+        <v>91</v>
+      </c>
+      <c r="F13" s="14">
+        <v>91</v>
+      </c>
+      <c r="G13" s="15">
+        <f>(F13-E13+20)/20</f>
         <v>1</v>
       </c>
-      <c r="H10" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H13" s="16" t="str">
+        <f>IF(G13&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="35" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="12">
-        <f>COUNTIF(H6:H12,"Tercapai")</f>
-        <v>7</v>
-      </c>
-      <c r="H13" s="19">
-        <f>G13/ROWS(H6:H12)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="F16" s="20"/>
-      <c r="G16" s="21" t="str">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="10">
+        <f>COUNTIF(H6:H13,"Tercapai")</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="17">
+        <f>G14/ROWS(H6:H13)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="18"/>
+      <c r="G17" s="19" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 28 Oktober 2021</v>
       </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="20"/>
-      <c r="G18" s="23" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" s="18"/>
+      <c r="G19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="6:8">
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="20"/>
-      <c r="G21" s="20" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H22" s="20"/>
     </row>
   </sheetData>
+  <sortState ref="A6:H13">
+    <sortCondition ref="A6"/>
+  </sortState>
   <mergeCells count="10">
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G12">
+  <conditionalFormatting sqref="G6:G13">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H12">
+  <conditionalFormatting sqref="H6:H13">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
@@ -2329,7 +2473,7 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
@@ -2346,29 +2490,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="111.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="32" t="str">
+      <c r="A2" s="29" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"1 Putra","2 Putra")</f>
         <v>Oktober 2021 - Marhalah 2 Putra</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -2380,47 +2524,47 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="33"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2429,16 +2573,16 @@
       <c r="C6" s="5">
         <v>8</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="5">
         <v>156</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>151</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <f t="shared" ref="G6:G12" si="0">(F6-E6+20)/20</f>
         <v>0.75</v>
       </c>
@@ -2454,55 +2598,55 @@
       <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>11</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>220</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>213</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="H7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>8</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>153</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>153</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="H8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
@@ -2514,24 +2658,24 @@
       <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>154</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>150</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="H9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -2540,97 +2684,97 @@
       <c r="B10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>11</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>213</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>216</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="H10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>190</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>187</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="26">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="H11" s="7" t="str">
+      <c r="H11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>8</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>126</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>142</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="H12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="12">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="10">
         <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>3</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>G13/ROWS(H6:H12)</f>
         <v>0.42857142857142855</v>
       </c>
@@ -2640,54 +2784,54 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21" t="str">
+      <c r="F16" s="18"/>
+      <c r="G16" s="19" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 28 Oktober 2021</v>
       </c>
-      <c r="H16" s="22"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="20"/>
-      <c r="G18" s="23" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="20"/>
-      <c r="G21" s="20" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
@@ -2713,7 +2857,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2729,29 +2873,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="109.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="32" t="str">
+      <c r="A2" s="29" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"1 Putra","2 Putri")</f>
         <v>Oktober 2021 - Marhalah 2 Putri</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -2763,44 +2907,44 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="33"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
@@ -2809,17 +2953,25 @@
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14">
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="5">
+        <v>100</v>
+      </c>
+      <c r="F6" s="11">
+        <v>90</v>
+      </c>
+      <c r="G6" s="12">
         <f>(F6-E6+20)/20</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="15" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="13" t="str">
         <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Tercapai</v>
+        <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2829,39 +2981,55 @@
       <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17">
+      <c r="C7" s="6">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="6">
+        <v>128</v>
+      </c>
+      <c r="F7" s="14">
+        <v>122</v>
+      </c>
+      <c r="G7" s="15">
         <f t="shared" ref="G7:G15" si="1">(F7-E7+20)/20</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="18" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="6">
+        <v>217</v>
+      </c>
+      <c r="F8" s="14">
+        <v>219</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>Tercapai</v>
-      </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
@@ -2870,156 +3038,212 @@
       <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17">
+      <c r="C9" s="6">
+        <v>11</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="6">
+        <v>201</v>
+      </c>
+      <c r="F9" s="14">
+        <v>202</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Tercapai</v>
+      </c>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="6">
+        <v>113</v>
+      </c>
+      <c r="F10" s="14">
+        <v>108</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="6">
+        <v>131</v>
+      </c>
+      <c r="F11" s="14">
+        <v>124</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="6">
+        <v>14</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="6">
+        <v>268</v>
+      </c>
+      <c r="F12" s="14">
+        <v>268</v>
+      </c>
+      <c r="G12" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H9" s="18" t="str">
+      <c r="H12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="6">
+        <v>13</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="6">
+        <v>260</v>
+      </c>
+      <c r="F13" s="14">
+        <v>260</v>
+      </c>
+      <c r="G13" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H10" s="18" t="str">
+      <c r="H13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="6">
+        <v>138</v>
+      </c>
+      <c r="F14" s="14">
+        <v>131</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="6">
         <v>73</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17">
+      <c r="F15" s="14">
+        <v>64</v>
+      </c>
+      <c r="G15" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="18" t="str">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H15" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>Tercapai</v>
+        <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="12">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="10">
         <f>COUNTIF(H6:H15,"Tercapai")</f>
-        <v>10</v>
-      </c>
-      <c r="H16" s="19">
+        <v>4</v>
+      </c>
+      <c r="H16" s="17">
         <f>G16/ROWS(H6:H15)</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3027,54 +3251,54 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21" t="str">
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 28 Oktober 2021</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="F21" s="20"/>
-      <c r="G21" s="23" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="22"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="22"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="F24" s="20"/>
-      <c r="G24" s="20" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G15">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">

--- a/rekap baru/2021-10.xlsx
+++ b/rekap baru/2021-10.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20379"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\pesantren\rekap-tahfidz\rekap baru\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2BE93A-849B-404C-BF0E-ACC5582E7E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19485" windowHeight="7890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -24,16 +18,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2 putra'!$A$1:$H$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2 putri'!$A$1:$H$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
   <si>
     <t>DATA PENCAPAIAN TAHFIDZ</t>
   </si>
   <si>
+    <t>Oktober 2021 - Marhalah 1 Putra</t>
+  </si>
+  <si>
     <t>Nama</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>Keterangan</t>
   </si>
   <si>
+    <t>Murajaah</t>
+  </si>
+  <si>
     <t>Juz</t>
   </si>
   <si>
@@ -64,67 +64,112 @@
     <t>Diperoleh</t>
   </si>
   <si>
+    <t>Dari</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Tambahan</t>
+  </si>
+  <si>
     <t>Arviandow</t>
   </si>
   <si>
     <t>21.02.019</t>
   </si>
   <si>
+    <t>Al-Infithar</t>
+  </si>
+  <si>
     <t>Ayaturrahman Shinra</t>
   </si>
   <si>
     <t>21.02.020</t>
   </si>
   <si>
+    <t>Ali Imran: 9</t>
+  </si>
+  <si>
     <t>Khalid Ghazy</t>
   </si>
   <si>
     <t>21.02.022</t>
   </si>
   <si>
+    <t>Ali Imran: 200</t>
+  </si>
+  <si>
     <t>Muhammad Radja</t>
   </si>
   <si>
     <t>21.02.023</t>
   </si>
   <si>
+    <t>Al-Baqarah: 112</t>
+  </si>
+  <si>
     <t>Muhammad Rasya</t>
   </si>
   <si>
     <t>21.02.024</t>
   </si>
   <si>
+    <t>Al-Baqarah: 196</t>
+  </si>
+  <si>
     <t>Muhammad Rayhan</t>
   </si>
   <si>
     <t>21.02.025</t>
   </si>
   <si>
+    <t>Al-Baqarah: 48</t>
+  </si>
+  <si>
     <t>Fa'iq</t>
   </si>
   <si>
     <t>21.02.038</t>
   </si>
   <si>
+    <t>Al-Baqarah: 76</t>
+  </si>
+  <si>
     <t>Hazwan Hafidzudin</t>
   </si>
   <si>
     <t>21.02.021</t>
   </si>
   <si>
+    <t>Al-An'am: 73</t>
+  </si>
+  <si>
+    <t>30-1</t>
+  </si>
+  <si>
     <t>Rihal Muharrikul Haq</t>
   </si>
   <si>
     <t>21.02.027</t>
   </si>
   <si>
+    <t>Al-An'am: 52</t>
+  </si>
+  <si>
     <t>Zahy Awwab</t>
   </si>
   <si>
     <t>21.02.028</t>
   </si>
   <si>
+    <t>Al-Baqarah: 274</t>
+  </si>
+  <si>
     <t>Yang mencapai target</t>
+  </si>
+  <si>
+    <t>Samarinda, 28 Oktober 2021</t>
   </si>
   <si>
     <t xml:space="preserve">          Penanggung Jawab</t>
@@ -158,266 +203,237 @@
     <t>21.02.030</t>
   </si>
   <si>
+    <t>Al-Baqarah: 186</t>
+  </si>
+  <si>
+    <t>Maryam Fikria Tasya</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 101</t>
+  </si>
+  <si>
     <t>Mila Najiyah</t>
   </si>
   <si>
     <t>21.02.031</t>
   </si>
   <si>
+    <t>Ali Imran: 157</t>
+  </si>
+  <si>
     <t>Najwa Hani Fillah</t>
   </si>
   <si>
     <t>21.02.032</t>
   </si>
   <si>
+    <t>Al-Baqarah: 248</t>
+  </si>
+  <si>
     <t>Nayla Izzatul Hasanah</t>
   </si>
   <si>
     <t>21.02.033</t>
   </si>
   <si>
+    <t>An-Nisa: 11</t>
+  </si>
+  <si>
     <t>Nida Khalwatus S</t>
   </si>
   <si>
     <t>21.02.034</t>
   </si>
   <si>
+    <t>Al-Baqarah: 286</t>
+  </si>
+  <si>
     <t>Riska Fitriana Putri</t>
   </si>
   <si>
     <t>21.02.035</t>
   </si>
   <si>
+    <t>Al-Baqarah: 181</t>
+  </si>
+  <si>
     <t>Safarus Aufa Rifdah</t>
   </si>
   <si>
     <t>21.02.036</t>
   </si>
   <si>
+    <t>An-Nisa: 86</t>
+  </si>
+  <si>
     <t>Ja'far Asshodiq Habibullah F</t>
   </si>
   <si>
     <t>20.02.003</t>
   </si>
   <si>
+    <t>Al-A'raf: 11</t>
+  </si>
+  <si>
     <t>Abdurrahman Al-Zuhdi</t>
   </si>
   <si>
     <t>20.02.004</t>
   </si>
   <si>
+    <t>Yunus: 42</t>
+  </si>
+  <si>
     <t>M. Fatih Yusuf Rahman</t>
   </si>
   <si>
     <t>20.02.005</t>
   </si>
   <si>
+    <t>Al-A'raf: 30</t>
+  </si>
+  <si>
     <t>Dzaakir Hawaary Arbie</t>
   </si>
   <si>
     <t>20.02.006</t>
   </si>
   <si>
+    <t>Al-A'raf: 165</t>
+  </si>
+  <si>
     <t>Muhammad Firmansyah</t>
   </si>
   <si>
     <t>20.02.007</t>
   </si>
   <si>
+    <t>Yunus: 70</t>
+  </si>
+  <si>
     <t>Syamil Muwahhiduddien</t>
   </si>
   <si>
     <t>20.02.013</t>
   </si>
   <si>
+    <t>At-Taubah: 6</t>
+  </si>
+  <si>
     <t>Royan Abdullah Asyari</t>
   </si>
   <si>
     <t>20.02.017</t>
   </si>
   <si>
+    <t>Al-An'am: 118</t>
+  </si>
+  <si>
     <t>Nur Azizah</t>
   </si>
   <si>
     <t>20.02.001</t>
   </si>
   <si>
+    <t>An-Nisa: 79</t>
+  </si>
+  <si>
     <t>Siti Khodijah</t>
   </si>
   <si>
     <t>20.02.002</t>
   </si>
   <si>
+    <t>Al-Maidah: 89</t>
+  </si>
+  <si>
     <t>Jahrisa Juana</t>
   </si>
   <si>
     <t>20.02.008</t>
   </si>
   <si>
+    <t>Yunus: 97</t>
+  </si>
+  <si>
     <t>Nurlayli Ubadah</t>
   </si>
   <si>
     <t>20.02.009</t>
   </si>
   <si>
+    <t>At-Taubah: 99</t>
+  </si>
+  <si>
     <t>Nadyne Fathiya Chairinda</t>
   </si>
   <si>
     <t>20.02.010</t>
   </si>
   <si>
+    <t>Al-Maidah: 9</t>
+  </si>
+  <si>
     <t>Salwa</t>
   </si>
   <si>
     <t>20.02.011</t>
   </si>
   <si>
+    <t>Al-Maidah: 103</t>
+  </si>
+  <si>
     <t>Muthia Shofia</t>
   </si>
   <si>
     <t>20.02.012</t>
   </si>
   <si>
+    <t>An-Nahl: 14</t>
+  </si>
+  <si>
     <t>Nada Sahla Syahidah</t>
   </si>
   <si>
     <t>20.02.014</t>
   </si>
   <si>
+    <t>Ibrahim: 42</t>
+  </si>
+  <si>
     <t>Nada Sabila Syahidah</t>
   </si>
   <si>
     <t>20.02.015</t>
   </si>
   <si>
+    <t>Al-An'am: 35</t>
+  </si>
+  <si>
     <t>Inas Afifah</t>
   </si>
   <si>
     <t>20.02.016</t>
   </si>
   <si>
-    <t>Oktober 2021 - Marhalah 1 Putra</t>
-  </si>
-  <si>
-    <t>Al-Infithar</t>
-  </si>
-  <si>
-    <t>Ali Imran: 9</t>
-  </si>
-  <si>
-    <t>Ali Imran: 200</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 112</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 196</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 48</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 76</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 274</t>
-  </si>
-  <si>
-    <t>Al-An'am: 73</t>
-  </si>
-  <si>
-    <t>Al-A'raf: 11</t>
-  </si>
-  <si>
-    <t>Al-A'raf: 30</t>
-  </si>
-  <si>
-    <t>Al-A'raf: 165</t>
-  </si>
-  <si>
-    <t>Yunus: 42</t>
-  </si>
-  <si>
-    <t>Al-An'am: 52</t>
-  </si>
-  <si>
-    <t>Yunus: 70</t>
-  </si>
-  <si>
-    <t>At-Taubah: 6</t>
-  </si>
-  <si>
-    <t>Samarinda, 28 Oktober 2021</t>
-  </si>
-  <si>
-    <t>Al-An'am: 118</t>
-  </si>
-  <si>
-    <t>Maryam Fikria Tasya</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 186</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 101</t>
-  </si>
-  <si>
-    <t>Ali Imran: 157</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 248</t>
-  </si>
-  <si>
-    <t>An-Nisa: 11</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 286</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 181</t>
-  </si>
-  <si>
-    <t>An-Nisa: 86</t>
-  </si>
-  <si>
-    <t>An-Nisa: 79</t>
-  </si>
-  <si>
-    <t>Al-Maidah: 89</t>
-  </si>
-  <si>
-    <t>Yunus: 97</t>
-  </si>
-  <si>
-    <t>At-Taubah: 99</t>
-  </si>
-  <si>
-    <t>Al-Maidah: 9</t>
-  </si>
-  <si>
-    <t>Al-Maidah: 103</t>
-  </si>
-  <si>
-    <t>An-Nahl: 14</t>
-  </si>
-  <si>
-    <t>Ibrahim: 42</t>
-  </si>
-  <si>
-    <t>Al-An'am: 35</t>
-  </si>
-  <si>
     <t>Ali Imran: 115</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,9 +464,146 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,15 +614,201 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -555,17 +894,268 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -575,7 +1165,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -585,28 +1181,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -617,176 +1222,89 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -801,23 +1319,20 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF4747"/>
-      <color rgb="FFFF8989"/>
+      <color rgb="00FF4747"/>
+      <color rgb="00FF8989"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -828,19 +1343,13 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -854,7 +1363,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-297914">
-          <a:off x="8892540" y="4987925"/>
+          <a:off x="7181215" y="4845050"/>
           <a:ext cx="904875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -902,19 +1411,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -927,7 +1430,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5570855" y="0"/>
+          <a:off x="4563745" y="0"/>
           <a:ext cx="807720" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -941,7 +1444,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -952,19 +1455,13 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -978,7 +1475,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-297914">
-          <a:off x="8420735" y="4503420"/>
+          <a:off x="6786880" y="4579620"/>
           <a:ext cx="904875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1026,19 +1523,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1051,7 +1542,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5535930" y="0"/>
+          <a:off x="4547870" y="0"/>
           <a:ext cx="807720" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1065,7 +1556,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1076,19 +1567,13 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1102,7 +1587,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-297914">
-          <a:off x="8004175" y="4492625"/>
+          <a:off x="5907405" y="4378325"/>
           <a:ext cx="904875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1150,19 +1635,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1175,8 +1654,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4980940" y="0"/>
-          <a:ext cx="1212850" cy="847725"/>
+          <a:off x="3607435" y="0"/>
+          <a:ext cx="943610" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1189,7 +1668,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1200,19 +1679,13 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1226,7 +1699,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-297914">
-          <a:off x="8229600" y="4971415"/>
+          <a:off x="6634480" y="4828540"/>
           <a:ext cx="904875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1274,19 +1747,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1299,7 +1766,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5335905" y="0"/>
+          <a:off x="4315460" y="0"/>
           <a:ext cx="807720" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1564,456 +2031,539 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="I4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.425" customWidth="1"/>
+    <col min="2" max="2" width="14.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.8583333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.1416666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.8583333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.8583333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.7083333333333" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="111.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" ht="111.75" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="30"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="F5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11">
         <v>30</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11">
         <v>11</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="22">
         <v>587</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="34">
         <f>4/20</f>
         <v>0.2</v>
       </c>
-      <c r="H6" s="6" t="str">
+      <c r="H6" s="11" t="str">
         <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11">
         <v>62</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="22">
         <v>50</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="34">
         <f t="shared" ref="G7" si="1">(F7-E7+20)/20</f>
         <v>0.4</v>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="H7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="I7" s="39">
+        <v>30</v>
+      </c>
+      <c r="J7" s="38">
+        <v>1</v>
+      </c>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11">
         <v>4</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11">
         <v>78</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="22">
         <v>76</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="34">
         <f t="shared" ref="G8:G9" si="2">(F8-E8+20)/20</f>
         <v>0.9</v>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="I8" s="38">
+        <v>1</v>
+      </c>
+      <c r="J8" s="38">
+        <v>3</v>
+      </c>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11">
+        <v>29</v>
+      </c>
+      <c r="F9" s="22">
         <v>17</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="6">
-        <v>29</v>
-      </c>
-      <c r="F9" s="14">
-        <v>17</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="G9" s="34">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="I9" s="38">
+        <v>30</v>
+      </c>
+      <c r="J9" s="38">
+        <v>1</v>
+      </c>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="11">
         <v>38</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="22">
         <v>30</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="34">
         <f t="shared" ref="G10" si="3">(F10-E10+20)/20</f>
         <v>0.6</v>
       </c>
-      <c r="H10" s="6" t="str">
+      <c r="H10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="I10" s="38">
+        <v>30</v>
+      </c>
+      <c r="J10" s="38">
         <v>1</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="11">
         <v>23</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="22">
         <v>7</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="34">
         <f t="shared" ref="G11:G12" si="4">(F11-E11+20)/20</f>
         <v>0.2</v>
       </c>
-      <c r="H11" s="6" t="str">
+      <c r="H11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="I11" s="38">
+        <v>30</v>
+      </c>
+      <c r="J11" s="38">
         <v>1</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="11">
         <v>19</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="22">
         <v>11</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="34">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="H12" s="6" t="str">
+      <c r="H12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="I12" s="38">
+        <v>30</v>
+      </c>
+      <c r="J12" s="38">
+        <v>1</v>
+      </c>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="11">
         <v>119</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="22">
         <v>136</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="34">
         <f t="shared" ref="G13:G15" si="5">(F13-E13+20)/20</f>
         <v>1.85</v>
       </c>
-      <c r="H13" s="6" t="str">
+      <c r="H13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="I13" s="38">
+        <v>4</v>
+      </c>
+      <c r="J13" s="38">
+        <v>5</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11">
         <v>7</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="11">
         <v>130</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="22">
         <v>133</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="34">
         <f t="shared" si="5"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H14" s="6" t="str">
+        <v>1.15</v>
+      </c>
+      <c r="H14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="I14" s="38">
         <v>30</v>
       </c>
-      <c r="C15" s="6">
+      <c r="J14" s="38">
         <v>3</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="11">
         <v>49</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="22">
         <v>46</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="34">
         <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
-      <c r="H15" s="6" t="str">
+      <c r="H15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="10">
+      <c r="I15" s="38">
+        <v>30</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1</v>
+      </c>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="18">
         <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>2</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="26">
         <f>G16/ROWS(H6:H15)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="F19" s="18"/>
-      <c r="G19" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="F21" s="18"/>
-      <c r="G21" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" s="27"/>
+      <c r="G19" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" s="27"/>
+      <c r="G21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2021,429 +2571,501 @@
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H15">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.425" customWidth="1"/>
+    <col min="2" max="2" width="13.5666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.85833333333333" customWidth="1"/>
+    <col min="4" max="4" width="22.2833333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.5666666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.8583333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.7083333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="110.25" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" ht="110.25" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="29" t="str">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"Putra","Putri")</f>
         <v>Oktober 2021 - Marhalah 1 Putri</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="27.75" customHeight="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="11">
+        <v>34</v>
+      </c>
+      <c r="F6" s="22">
+        <v>28</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" ref="G6:G13" si="0">(F6-E6+20)/20</f>
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f t="shared" ref="H6:H13" si="1">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Belum Tercapai</v>
+      </c>
+      <c r="I6" s="31">
+        <v>30</v>
+      </c>
+      <c r="J6" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>15</v>
+      </c>
+      <c r="G7" s="23">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="H7" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Tercapai</v>
+      </c>
+      <c r="I7" s="32">
+        <v>30</v>
+      </c>
+      <c r="J7" s="31">
+        <v>1</v>
+      </c>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="11">
+        <v>74</v>
+      </c>
+      <c r="F8" s="22">
+        <v>70</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Belum Tercapai</v>
+      </c>
+      <c r="I8" s="32">
+        <v>30</v>
+      </c>
+      <c r="J8" s="31">
+        <v>3</v>
+      </c>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="11">
+        <v>45</v>
+      </c>
+      <c r="F9" s="22">
+        <v>40</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Belum Tercapai</v>
+      </c>
+      <c r="I9" s="31">
+        <v>30</v>
+      </c>
+      <c r="J9" s="31">
+        <v>1</v>
+      </c>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="11">
+        <v>84</v>
+      </c>
+      <c r="F10" s="22">
+        <v>78</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Belum Tercapai</v>
+      </c>
+      <c r="I10" s="31">
+        <v>30</v>
+      </c>
+      <c r="J10" s="31">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30" t="s">
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="11">
+        <v>60</v>
+      </c>
+      <c r="F11" s="22">
+        <v>49</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Belum Tercapai</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31">
+        <v>3</v>
+      </c>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="24">
+        <v>35</v>
+      </c>
+      <c r="F12" s="22">
+        <v>27</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Belum Tercapai</v>
+      </c>
+      <c r="I12" s="31">
+        <v>30</v>
+      </c>
+      <c r="J12" s="31">
+        <v>1</v>
+      </c>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="11">
         <v>5</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="30"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="6">
-        <v>34</v>
-      </c>
-      <c r="F6" s="14">
-        <v>28</v>
-      </c>
-      <c r="G6" s="15">
-        <f>(F6-E6+20)/20</f>
-        <v>0.7</v>
-      </c>
-      <c r="H6" s="16" t="str">
-        <f>IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Belum Tercapai</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="D13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="11">
+        <v>91</v>
+      </c>
+      <c r="F13" s="22">
+        <v>91</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14">
-        <v>15</v>
-      </c>
-      <c r="G7" s="15">
-        <f>(F7-E7+20)/20</f>
-        <v>1.7</v>
-      </c>
-      <c r="H7" s="16" t="str">
-        <f>IF(G7&gt;=1,"Tercapai","Belum Tercapai")</f>
+      <c r="H13" s="24" t="str">
+        <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="6">
-        <v>74</v>
-      </c>
-      <c r="F8" s="14">
-        <v>70</v>
-      </c>
-      <c r="G8" s="15">
-        <f>(F8-E8+20)/20</f>
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="16" t="str">
-        <f>IF(G8&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Belum Tercapai</v>
-      </c>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="6">
-        <v>45</v>
-      </c>
-      <c r="F9" s="14">
-        <v>40</v>
-      </c>
-      <c r="G9" s="15">
-        <f>(F9-E9+20)/20</f>
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="16" t="str">
-        <f>IF(G9&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Belum Tercapai</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6">
-        <v>4</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="6">
-        <v>84</v>
-      </c>
-      <c r="F10" s="14">
-        <v>78</v>
-      </c>
-      <c r="G10" s="15">
-        <f>(F10-E10+20)/20</f>
-        <v>0.7</v>
-      </c>
-      <c r="H10" s="16" t="str">
-        <f>IF(G10&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Belum Tercapai</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="I13" s="31">
+        <v>30</v>
+      </c>
+      <c r="J13" s="31">
         <v>3</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="6">
-        <v>60</v>
-      </c>
-      <c r="F11" s="14">
-        <v>49</v>
-      </c>
-      <c r="G11" s="15">
-        <f>(F11-E11+20)/20</f>
-        <v>0.45</v>
-      </c>
-      <c r="H11" s="16" t="str">
-        <f>IF(G11&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Belum Tercapai</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="27">
-        <v>2</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="27">
-        <v>35</v>
-      </c>
-      <c r="F12" s="14">
-        <v>27</v>
-      </c>
-      <c r="G12" s="15">
-        <f>(F12-E12+20)/20</f>
-        <v>0.6</v>
-      </c>
-      <c r="H12" s="27" t="str">
-        <f>IF(G12&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Belum Tercapai</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="6">
-        <v>91</v>
-      </c>
-      <c r="F13" s="14">
-        <v>91</v>
-      </c>
-      <c r="G13" s="15">
-        <f>(F13-E13+20)/20</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="16" t="str">
-        <f>IF(G13&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="10">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="18">
         <f>COUNTIF(H6:H13,"Tercapai")</f>
         <v>2</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="26">
         <f>G14/ROWS(H6:H13)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="18"/>
-      <c r="G17" s="19" t="str">
+      <c r="F17" s="27"/>
+      <c r="G17" s="28" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 28 Oktober 2021</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="20"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="18"/>
-      <c r="G19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="20"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="20"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="6:8">
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="20"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="29"/>
     </row>
   </sheetData>
   <sortState ref="A6:H13">
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="10">
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2451,382 +3073,443 @@
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G13">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H13">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="12.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.8583333333333" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.425" customWidth="1"/>
+    <col min="7" max="7" width="14.2833333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.1416666666667" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="111.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" ht="111.75" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="29" t="str">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"1 Putra","2 Putra")</f>
         <v>Oktober 2021 - Marhalah 2 Putra</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="30"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="9">
         <v>8</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="9">
         <v>156</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="19">
         <v>151</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="33">
         <f t="shared" ref="G6:G12" si="0">(F6-E6+20)/20</f>
         <v>0.75</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="9" t="str">
         <f t="shared" ref="H6:H12" si="1">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="11">
         <v>11</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="11">
         <v>220</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="22">
         <v>213</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="34">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="H7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="11">
         <v>8</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="11">
         <v>153</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="22">
         <v>153</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="I8" s="32">
+        <v>2</v>
+      </c>
+      <c r="J8" s="35">
+        <v>4</v>
+      </c>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="9">
         <v>8</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="11">
         <v>154</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="22">
         <v>150</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="34">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="I9" s="32">
+        <v>4</v>
+      </c>
+      <c r="J9" s="35">
+        <v>7</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11">
         <v>11</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="11">
         <v>213</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="22">
         <v>216</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="34">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H10" s="6" t="str">
+        <v>1.15</v>
+      </c>
+      <c r="H10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="I10" s="35">
+        <v>30</v>
+      </c>
+      <c r="J10" s="35">
+        <v>3</v>
+      </c>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="11">
         <v>10</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="11">
         <v>190</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="22">
         <v>187</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="34">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="H11" s="6" t="str">
+      <c r="H11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="I11" s="35">
+        <v>2</v>
+      </c>
+      <c r="J11" s="35">
+        <v>3</v>
+      </c>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="11">
         <v>8</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="11">
         <v>126</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="22">
         <v>142</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="34">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="H12" s="6" t="str">
+      <c r="H12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="10">
+      <c r="I12" s="35">
+        <v>30</v>
+      </c>
+      <c r="J12" s="35">
+        <v>3</v>
+      </c>
+      <c r="K12" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="18">
         <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>3</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="26">
         <f>G13/ROWS(H6:H12)</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19" t="str">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 28 Oktober 2021</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="20"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="18"/>
-      <c r="G18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="20"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="20"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2834,466 +3517,552 @@
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.425" customWidth="1"/>
+    <col min="5" max="5" width="11.7083333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.2833333333333" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5666666666667" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="109.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" ht="109.5" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="29" t="str">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"1 Putra","2 Putri")</f>
         <v>Oktober 2021 - Marhalah 2 Putri</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="30"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="9">
         <v>100</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="19">
         <v>90</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="20">
         <f>(F6-E6+20)/20</f>
         <v>0.5</v>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="21" t="str">
         <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31">
+        <v>4</v>
+      </c>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="11">
         <v>7</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="11">
         <v>128</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="22">
         <v>122</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="23">
         <f t="shared" ref="G7:G15" si="1">(F7-E7+20)/20</f>
         <v>0.7</v>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="I7" s="31">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31">
+        <v>4</v>
+      </c>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="11">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="11">
         <v>217</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="22">
         <v>219</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="23">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H8" s="16" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="H8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="I8" s="32">
+        <v>7</v>
+      </c>
+      <c r="J8" s="31">
         <v>11</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="11">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="11">
         <v>201</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="22">
         <v>202</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="23">
         <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="I9" s="32">
         <v>6</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="J9" s="31">
+        <v>9</v>
+      </c>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="11">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="11">
         <v>113</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="22">
         <v>108</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="23">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="H10" s="16" t="str">
+      <c r="H10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="31">
+        <v>5</v>
+      </c>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="11">
         <v>7</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="11">
         <v>131</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="22">
         <v>124</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="23">
         <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-      <c r="H11" s="16" t="str">
+      <c r="H11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31">
+        <v>4</v>
+      </c>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="11">
         <v>14</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="11">
         <v>268</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="22">
         <v>268</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="I12" s="31">
+        <v>8</v>
+      </c>
+      <c r="J12" s="31">
+        <v>12</v>
+      </c>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="11">
         <v>13</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="11">
         <v>260</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="22">
         <v>260</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="16" t="str">
+      <c r="H13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="I13" s="31">
+        <v>9</v>
+      </c>
+      <c r="J13" s="31">
+        <v>12</v>
+      </c>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="11">
         <v>7</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="11">
         <v>138</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="22">
         <v>131</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="23">
         <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-      <c r="H14" s="16" t="str">
+      <c r="H14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="I14" s="31">
+        <v>2</v>
+      </c>
+      <c r="J14" s="31">
+        <v>5</v>
+      </c>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="11">
         <v>4</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="11">
         <v>73</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="22">
         <v>64</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="23">
         <f t="shared" si="1"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H15" s="16" t="str">
+        <v>0.55</v>
+      </c>
+      <c r="H15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="10">
+      <c r="I15" s="31">
+        <v>1</v>
+      </c>
+      <c r="J15" s="31">
+        <v>3</v>
+      </c>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="18">
         <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>4</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="26">
         <f>G16/ROWS(H6:H15)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19" t="str">
+      <c r="A19" s="3"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 28 Oktober 2021</v>
       </c>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="F21" s="18"/>
-      <c r="G21" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="20"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" s="27"/>
+      <c r="G21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3301,7 +4070,7 @@
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3312,6 +4081,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>